--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\Data-Science-Gruppe-2-Teamordner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813386D3-B79E-46E9-A7CF-7EF9515E772A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BF285-A7AD-4FA5-A05A-D022FB31555C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Potentielle Abhängigkeiten</t>
-  </si>
-  <si>
     <t>Wetter</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Ferien</t>
+  </si>
+  <si>
+    <t>Potentielle Abhängigkeiten des Umsatzes nach Produktgruppen</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,62 +392,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Arbeitsaufteilung.xlsx
+++ b/Arbeitsaufteilung.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\Data-Science-Gruppe-2-Teamordner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116BF285-A7AD-4FA5-A05A-D022FB31555C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4AB5C-1952-4087-BA0D-AC2ACE81C2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Abhängigkeiten" sheetId="1" r:id="rId1"/>
+    <sheet name="Daten sichten, Un-Regelmäßigk." sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Wetter</t>
   </si>
@@ -60,7 +61,10 @@
     <t>Ferien</t>
   </si>
   <si>
-    <t>Potentielle Abhängigkeiten des Umsatzes nach Produktgruppen</t>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>Potentielle Abhängigkeiten des Umsatzes nach Produktgruppen von…</t>
   </si>
 </sst>
 </file>
@@ -381,7 +385,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,7 +396,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,4 +457,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3009C28E-3C10-47EA-9E7E-60F2F4C71AEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>